--- a/examples/datasheet/NewbieGuide.xlsx
+++ b/examples/datasheet/NewbieGuide.xlsx
@@ -26,25 +26,53 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>CHENQIANG</author>
+  </authors>
+  <commentList>
+    <comment ref="G2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>可以单独一行表示类型</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Desc</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>Accomplishment</t>
-  </si>
-  <si>
-    <t>RewardGoods</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+  <si>
+    <t>Name
+名称</t>
+  </si>
+  <si>
+    <t>Desc
+描述</t>
+  </si>
+  <si>
+    <t>Category
+分类</t>
+  </si>
+  <si>
+    <t>Target
+引导目标</t>
+  </si>
+  <si>
+    <t>Accomplishment
+需要完成任务</t>
+  </si>
+  <si>
+    <t>RewardGoods
+任务奖励</t>
   </si>
   <si>
     <t>#Description</t>
@@ -74,7 +102,7 @@
     <t>1|2|3</t>
   </si>
   <si>
-    <t>Food=10|Gas=100</t>
+    <t>Food:10|Gas:100</t>
   </si>
   <si>
     <t>建造1个引擎控制室</t>
@@ -104,6 +132,9 @@
     <t>1|2|5</t>
   </si>
   <si>
+    <t>Food:10|Gas:101</t>
+  </si>
+  <si>
     <t>将大力神登陆艇升至2级</t>
   </si>
   <si>
@@ -119,6 +150,9 @@
     <t>1|2|6</t>
   </si>
   <si>
+    <t>Food:10|Gas:102</t>
+  </si>
+  <si>
     <t>解放1个太空殖民地</t>
   </si>
   <si>
@@ -131,6 +165,9 @@
     <t>1|2|7</t>
   </si>
   <si>
+    <t>Food:10|Gas:103</t>
+  </si>
+  <si>
     <t>建造1个保险库</t>
   </si>
   <si>
@@ -143,6 +180,9 @@
     <t>1|2|8</t>
   </si>
   <si>
+    <t>Food:10|Gas:104</t>
+  </si>
+  <si>
     <t>建造1个幽灵哨塔</t>
   </si>
   <si>
@@ -158,6 +198,9 @@
     <t>1|2|9</t>
   </si>
   <si>
+    <t>Food:10|Gas:105</t>
+  </si>
+  <si>
     <t>将章北海等级提升至2级</t>
   </si>
   <si>
@@ -171,6 +214,9 @@
   </si>
   <si>
     <t>1|2|10</t>
+  </si>
+  <si>
+    <t>Food:10|Gas:106</t>
   </si>
   <si>
     <t>将陆战队等级提升至2级</t>
@@ -186,7 +232,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +253,13 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -357,6 +410,11 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -677,137 +735,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -819,15 +877,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1152,7 +1216,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="19" customHeight="1" outlineLevelCol="6"/>
@@ -1166,7 +1230,7 @@
     <col min="8" max="16384" width="13.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:7">
+    <row r="1" ht="37" customHeight="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1185,220 +1249,221 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="7">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>25</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="5">
+      <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="E6" s="8" t="s">
         <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>34</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
-      <c r="A8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>38</v>
+      <c r="D8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:7">
-      <c r="A9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="A9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="7">
         <v>1</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>43</v>
+      <c r="D9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:7">
-      <c r="A10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="A10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>48</v>
+      <c r="D10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>